--- a/500all/speech_level/speeches_CHRG-114hhrg98448.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98448.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. The subcommittee on Commerce, Manufacturing, and Trade will now come to order. The chair will recognize himself for 5 minutes for the purpose of an opening statement.    And I do want to welcome everyone to our hearing this morning on the draft companion legislation to the Motor Vehicle Safety Whistleblower Act, and the discussion draft of the Improving Recall Tracking Act.    In 2014, there were over 63 million vehicles recalled in the United States due to safety concerns. This represents the highest number of vehicle recalls in more than three decades.    Under current law, vehicle manufacturers are required to report defects and noncompliance to the National Highway Traffic Safety Administration. The chairman of the full committee, Mr. Upton, has seen to it with the good work he did on the TREAD Act, but there have been times when the reporting has been slow.    The Motor Vehicle Safety Whistleblower Act is intended to foster greater attention and greater responsiveness to vehicle safety defects. It does so by providing an incentive to automotive employees and to contractors who report potential safety violations to the United States Department of Transportation that otherwise would be concealed or unreported. The bill encourages employees to report safety problems within their companies first to allow the automaker the opportunity to address safety issues. This is an important point because it keeps the incentive to work within the system. The bill is meant to enhance current early reporting systems that have already been instituted by Congress. Furthermore, the bill is designed with the express purpose of exposing and stopping instances of wrongdoing and protecting the safe and well-being of the public.    In addition to the Motor Vehicle Safety Whistleblower Act, we have an opportunity to examine the discussion draft of the Improving Recall Tracking Act. This proposal would direct the Department of Transportation to establish a national database of vehicle identification numbers and driver registration information. It is intended to facilitate the consumer notification process in the event of a safety recall.    In light of recent recalls, it has become apparent that one of the main challenges of removing defective vehicles from the road is making certain that the right consumers are notified of the defect in a timely manner. This hearing will give us an opportunity to discuss how a national database housing current driver registration information and current vehicle identification numbers could help improve the consumer recall notification process beyond that which is in place today. We will also hear how the industry is currently responding to these challenges so we can factor in improvements of the system.    Vehicle safety is a serious issue. It continues to be a concern for this subcommittee and for the driving public. In past hearings on this subject, I have said that Americans deserve better, Americans deserve more. The legislative proposals we will consider today are a step in the right direction toward providing the driving public with confidence that the vehicles they are driving are safe and that the recall process works. I will, in anticipation, thank the witnesses for their testimonies. And I look forward to an engaging discussion on these measures.    With that, the chair yields back and recognizes the subcommittee ranking member, Ms. Schakowsky, for 5 minutes for an opening statement.</t>
   </si>
   <si>
     <t>400360</t>
   </si>
   <si>
-    <t>Janice D. Schakowsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman. It is so nice to meet on a quiet day where there is no real news to be talking about except for this. But even in connection with this, I did want to mention that I think this committee can also be focusing on very big issues and big news. And I look forward, I hope, to focusing on Volkswagen and their fraudulent emissions testing, cheating, that was revealed earlier this month.    As you pointed out, that the law already does require auto manufacturers to report defects. And here we have a situation of deliberately building in a defect. And we need to talk about that. I have a piece of legislation, the Vehicle Safety Improvement Act, which I think would actually do the real deal in terms of making sure that we deal with auto safety.    I want to recognize and welcome a friend of mine, Will Wallace, and a friend of this committee, who is testifying today on behalf of Consumers Union. He is an outstanding former staffer of the subcommittee and I know will bring important insight to this issue.    With more than 95 million American vehicles subject to safety recall over the past 2 years, we obviously have to improve the oversight of the auto industry and the efficacy and timeliness of recalls. I believe, unfortunately, that these bills miss the mark. While I support efforts to enhance the communication between auto companies and drivers whose cars are subject to recall, I don't believe that the vehicle identification number, VIN Database, discussion draft would achieve this goal.    Manufacturers are already able to access the names and addresses of drivers whose vehicles are subject to a recall. The difference in the discussion draft is that those records would be free of charge to the auto companies. And, yet, the bill would impose significant costs on NHTSA and the States with no funding provided to implement the new database. The Illinois Secretary of State's Office has communicated to us that he has serious concerns about the lack of financial support.    The second bill is intended to encourage auto industry whistleblowers. And while I appreciate the inclusion of language allowing whistleblowers to receive compensation and anonymity for coming forward, I have concerns about the bill's stipulations. Mr. Chairman, you said that it is good that the whistleblower has to report their concerns directly to the company first internally. And while one could make an argument that this might speed things up, I also really worry that provisions would discourage whistleblowers from acting and put them at professional risk for doing so, which really has been the history of whistleblowers. They have not done well vis-a-vis the companies that they work for.    There is a broader and more impactful legislative alternative to improve auto safety, as I said. My Vehicle Safety Improvement Act, which is cosponsored by Ranking Member Pallone and nine other members of this committee, is the alternative. It increases the amount and accessibility of information auto manufacturers must share with NHTSA and the public, and the public, about vehicle safety issues, and provides new authority to expedite auto recalls if they pose an imminent hazard of serious injury or death.    So that is what I am hoping that we are going to be able to do rather than I believe these bills, which kind of nibble around the margins. I am not just disappointed, I am actually frustrated. And I again urge the subcommittee to take up the Vehicle Safety Improvement Act. And I look forward to a discussion about what Volkswagen has been doing. And I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bozzella</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bozzella. Thank you, Mr. Chairman, Ranking Member Schakowsky, members of the subcommittee, thank you very much for the opportunity to testify today.    I am John Bozzella, CEO and President of the Association of Global Automakers. As the ranking member has mentioned, the very troubling facts that have come to light involving Volkswagen will likely have significant implications for the industry. And I look forward to working with the subcommittee and discussing these issues as we move on.    I have been asked for our perspective on two bills, the Motor Vehicle Safety Whistleblower Act and the Improving Recall Tracking Act. In 2012, Congress included strong whistleblower provisions in MAP-21. We agree that whistleblower protection is a valuable tool for ensuring that safety concerns will be promptly identified, investigated, and remedied. The bill before the subcommittee builds on this law. Whistleblower protections have been incorporated into the safety practices of our members because they recognize that the manufacturer and its employees are the first line of defense in identifying and remedying safety concerns. Our member companies have instituted internal controls that empower employees to communicate with their employer about any problem they observe that could impair product quality or safety. For example, manufacturers train their employees specifically on product defect and safety issues and have dedicated safety officers who are responsible for following up on concerns raised by employees.    In addition, manufacturers have established hotlines that empower employees to communicate potential problems. Such systems allow the company to take appropriate remedial steps, in many cases before the affected vehicles leave the factory. But no system is foolproof. We recognize that whistleblower statutes can play an important role in improving motor vehicle safety.    The implementing regulations should give companies every reason and incentive to be informed of the problems promptly so that they can investigate the issues and make any repairs that are needed. While it is important for whistleblowers to be able to report safety issues directly to NHTSA, the process should ensure that employees are not incentivized to shortcut or circumvent internal systems that would result in quicker problem resolution. Our shared goal is to address defects, find remedies, and take care of the customer as quickly as possible. This is why the manufacturer needs to be a critical part of the process from the beginning.    The second bill before the subcommittee would establish a national VIN database using registration data collected by State DMV offices. We agree DMVs could help improve recall completion rates. This bill would allow manufacturers access to the most up to date information from the DMVs, which they could use to more effectively communicate recall notices to vehicle owners. In addition, DMVs could be encouraged to notify everyone who registers a motor vehicle about the recall status of their vehicle.    This bill also directs NHTSA to enable batch searching and processing of VINs on its SaferCar.gov Web site. We are aware that the current NHTSA system has limitations. But it is our understanding that some vendors have developed tools that enable batch processing. We believe the subcommittee should ensure that the processes created by this bill are not unnecessarily duplicative.    Increasing recall completion rates is a priority for Global Automakers. That is why we are conducting research along with the Auto Alliance to help understand what drives consumers to respond to recall campaigns. We look forward to briefing the subcommittee on the research findings soon.    Thank you again for the opportunity to appear before you today. And I would be happy to answer any questions that you might have.</t>
   </si>
   <si>
@@ -85,36 +76,24 @@
     <t xml:space="preserve">    Mr. Burgess. Mr. LaFeir, you are recognized for 5 minutes to summarize your testimony please.</t>
   </si>
   <si>
-    <t>LaFeir</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaFeir. Chairman Burgess, Ranking Member Schakowsky, thank you for allowing me to testify, and members of the subcommittee.    I am Joe LaFeir, Senior Vice President, Information Systems and Solutions for IHS, where I lead the company's automative data solutions business, which includes recall processing. IHS's foundation in the automotive industry reaches back to the advent of the automobile. Since then, IHS has worked with nearly all manufacturers to facilitate the recall process.    IHS remains an industry leader in vehicle recall data processing and provides this service to most manufacturers today. The draft Improving Recall Tracking Act proposes to establish a national VIN database and driver information to aid in recall notification. In addition, the bill requires batch searching of the current SaferCar.gov.    To be clear, we do not oppose the batch searching provision. We are here today to express our opposition to the proposed new database. As with any good idea, the private sector has already developed a highly effective and robust solution. So the legislation simply directs the Federal Government to attempt to replicate what already exists. If enacted, the legislation will limit innovation and use taxpayer funds to create a Federally-run database that would be less efficient and likely less capable than current market solutions.    Today, the private sector's real time data processing is accomplished utilizing best in class system technologies. Using processes developed over decades, companies like IHS process billions of records each year from tens of thousands of sources and thousands of file formats. Companies like IHS also employ thousands of people, many of whom are devoted to data processing to support recall.    IHS acquires, standardizes, assembles data to create mailing lists to provide notice to affected consumers. We assist with the fulfillment of recall notices, measurement of campaigns through their completion. We provide real time reporting to our OEM customers. Further, following completion of recall notice mailings, we gather open recall information and provide that to the public through our subsidiary CARFAX and its vehicle history report service.    This bill would require registration information to be gathered from each state. Automotive data companies use registration as just one data point and many proprietary sources to determine the best possible address to contact the owner of a recalled vehicle. As proposed, this database would not provide the same level of data that we can provide today in the private sector. Using private sector data solutions, we can identify and provide addresses for the vast majority of car owners. While there are a few exceptions, recall notification return mail rates typically range in the single digits. And the private sector continues to innovate further to reduce these numbers. Given the private sector's success in providing notice, perhaps the focus should be placed on addressing why some notified consumers get their cars remedied and others do not.    In conclusion, the legislation, while well-intended, does not create a better solution than what exists today. In an era where Federal budgets are limited, this bill would direct NHTSA to attempt to duplicate a product and service that the market, using private capital, has created decades ago. The private sector continues to innovate, going well beyond the requirements of this legislation.    I appreciate the invitation to testify, and look forward to your comments.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair recognizes Mr. Lawrence for 5 minutes for a summary of your testimony please.</t>
   </si>
   <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lawrence. Good morning, Mr. Chairman, Ranking Member Schakowsky, Ranking Member Pallone, and members of this subcommittee. And thank you for inviting me to testify at today's hearing on the proposed Motor Vehicle Safety Whistleblower Act. My comments will be restricted to that bill only.    My name is Cleveland Lawrence, III. I am a Co-Executive Director of Taxpayers Against Fraud and its sister organization, TAFEF Education Fund, which are two non-profit public interest organizations dedicated to combating fraud against taxpayer dollars through the promotion and protection of False Claims Act laws and qui tam provisions, which allow whistleblowers with evidence of fraud against government entities, to file suit on behalf of the government in exchange for financial rewards of at least 15 and up to 30 percent of the government's recovery if their suits are successful.    My organizations also support the goals of the IRS, SEC, and CFTC whistleblower programs, which do not have qui tam provisions but still offer monetary rewards to whistleblowers in exchange for original information about significant tax, securities, and commodities fraud.    I first joined TAF in 2008 and became co-executive director in 2013. I am an attorney by training and spent the first 6 years of my career as an associate at the international law firm of Weil, Gotshal &amp; Manges, where, among other things, my practice included defending whistleblower claims brought under the False Claims Act. Having examined whistleblower claims from both sides over the past 15 years, I can say without reservation that the Federal False Claims Act is the model statute for any effective whistleblower law or program.    Since that law was overhauled in 1986, the False Claims Act has returned more than $40 billion to the U.S. Treasury. This result is in large part due to the significant role that whistleblowers have played in exposing fraud on the Federal fisc. For example, according to the U.S. Department of Justice, False Claims Act cases have recovered $5.69 billion for the Federal Government just last fiscal year alone, with nearly $3 billion of that total resulting from lawsuits filed by whistleblowers. The success of the False Claims Act over a near 30-year period should not and has not been ignored. More than half of the States have False Claims Act statutes now. And at the government's urging, most of these laws mimic the Federal statute.    Similarly, the IRS, SEC, and CFTC now have provisions that reward whistleblowers, all of which are modeled on the False Claims Act. While I applaud and fully endorse the effort to enact whistleblower legislation to make automobiles and road travel safer, I cannot support the proposed Motor Vehicle Safety Whistleblower Act in its current form, as it suffers from many of the deficiencies that have already been corrected under the False Claims Act, IRS, SEC, and CFTC arenas. I will discuss two of the primary weakness of the bill, either of which is enough to significantly derail the program.    First, the bill lacks guaranteed minimum rewards and gives the Secretary of Transportation unfettered discretion over the amount of an award up to a maximum to give to whistleblowers whose information resulted in monetary sanctions recovered by the government from an automobile manufacturer, parts supplier, or dealership, including the option to award no award at all. Decades of experience make clear that any whistleblower program will inevitably fail unless it guarantees minimum rewards for those who risk their careers to come forward.    Before the False Claims Act was overhauled in 1986, it did not guarantee minimum rewards either. And the program did not effectively remedy fraud, bringing in only about $54 million dollars in the year before it was amended. But since then, we have seen the outstanding success of the statute, bringing in billions of dollars each year in the recent years. Whistleblowers are simply unable to risk their livelihood without the assurance of some compensation for doing so and reporting fraud or misconduct by their companies to the government. The SEC and CFTC, similarly, have guaranteed minimum rewards to whistleblowers for their information, as has the IRS. The concept of incentivized integrity works. But a whistleblower program that does not ensure minimum rewards can offer little more than an illusory promise.    The second issue with the bill is the internal reporting requirement. I can think of no other effective law enforcement paradigm that requires that the target of the investigation is notified before the government can investigate. In my experience, whistleblowers often prefer to report internally. But since not all internal compliance programs are equal, they have to make the choice about whether or not reporting internally to the company will target them for retaliation. In addition, by requiring a whistleblower to report internally, the government effectively cuts off access to continued information about the misconduct within the company, giving the company an opportunity to coach further witnesses, destroy evidence, or otherwise thwart what could be an effective secret government internal investigation.    I urge the committee to correct these two issues, because without these corrections the program is doomed to failure. I am happy to answer your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Mr. Wallace, you are recognized for 5 minutes for your testimony. Thank you.</t>
   </si>
   <si>
-    <t>Wallace</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wallace. Good morning, Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee.    I am Will Wallace, a policy analyst for Consumers Union, the advocacy arm of Consumer Reports. We are an independent, non-profit organization that works with consumers and for consumers for a fair, just, and safe marketplace, and to empower consumers to protect themselves. Consumers Union and Consumer Reports have fought for decades to make cars safer and hold companies accountable for the products they sell. We have pushed for effective rules and laws and for safety features such as seatbelts, air bags, and electronic stability control.    Our auto test center works every day to evaluate safety technologies. And we communicate with millions of consumers to help them make informed choices and stay safe. We appreciate the opportunity to testify.    Today's hearing is timely, given the news lately about auto safety and corporate wrongdoing. The Federal settlement with General Motors over ignition switches linked to at least 174 deaths was very disappointing because it didn't nearly go far enough to hold auto companies accountable for hiding the truth. Right on its heels came the news that Volkswagen had cheated on emissions control testing for some 11 million diesel vehicles and covered it up. These news items are sending shock waves through the industry, our government, and the public. The resulting erosion of confidence can't be overstated. And lawmakers need to take action to address this corporate accountability crisis.    The discussion draft and bill before you today attempt to address pieces of the problem. One, the Improving Recall Tracking Act aims to tackle low recall completion rates, while the other, the Motor Vehicle Safety Whistleblower Act, seeks to root out concealed defects. While we are pleased that the subcommittee is pursuing these worthy goals, Consumers Union believes that the two proposals fall far short both in terms of meeting their objectives and in terms of improving the flawed system that is supposed to ensure safety defects are identified and repaired before people get hurt.    The GM fiasco, along with crises involving defects in Toyota, Takata, and Chrysler products among others, made clear that auto companies must do far more to ensure their vehicles are safe. And NHTSA must do far more to hold auto companies accountable. Yet, the drafts before the subcommittee today are strikingly limited in their ambition.    The Improving Recall Tracking Act could possibly help companies reach owners of older vehicles in case of a recall if it were fully funded. But the bill doesn't authorize that funding, despite requiring NHTSA and the States to carry out a substantial amount of new work. NHTSA, in particular, needs to be able to hire more staff to protect the public the way we all expect, not have them stretched more than they already are.    Similarly, the Whistleblower Act could incentivize auto industry employees to give NHTSA information about concealed defects. Just imagine how much suffering could have been prevented if a GM engineer had reported the flawed ignition switch to NHTSA in 2006 or 2007. However, we are concerned the bill may not be as effective as it could be, primarily because of the lack of an established minimum award that at least covers the loss of earnings a whistleblower could face by sacrificing his or her career.    More broadly, though, the discussion draft and bill today don't do nearly enough for consumer safety. Instead, we urge you to take up bolder legislation, such as H.R. 1181, the Vehicle Safety Improvement Act. That bill would address shortfalls in current law, such as NHTSA's inadequate civil penalties authority and the loophole that allows dealers to sell recalled used vehicles before they are repaired. In addition to these measures, Consumers Union also encourages the enactment of a criminal penalties provision to deter executives from hiding defects.    The bill would strengthen NHTSA by authorizing the additional funding it badly needs, giving it imminent hazard authority like CPSC and FDA have, and making sure it receives more detailed information from manufacturers through early warning reporting. The bill would empower consumers by giving them free access to more safety information and by making NHTSA's existing databases, which can be clumsy, confusing, and hard for an ordinary consumer to use, more timely and more readily searchable. The Vehicle Safety Improvement Act would create an auto safety system that is proactive, identifying defects before they reach epidemic proportions. And we urge members to advance it. We also urge members to create a strong safety title for a possible highway bill. In addition to requiring that rental car companies fix recalled vehicles before they offer them to consumers, as the Senate transportation bill does, such a safety title should include the needed reforms just outlined. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Mr. Karr, you are recognized for 5 minutes for your testimony please.</t>
   </si>
   <si>
-    <t>Karr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Karr. Thank you, Mr. Chairman, Ranking Member Schakowsky, Ranking Member Pallone. I appreciate the opportunity to testify on behalf of the Alliance of Automobile Manufacturers today.    I know that our time is limited. And my complete statement is submitted for the record. So I will limit my remarks here and try to focus on the big picture. You have asked me to testify about these two--the discussion draft and a bill today. Let's talk first about the Improving Recall Tracking Act. Auto manufacturers are committed to keeping their products safe. And when a safety defect is identified, we want to undertake a recall. And we want all of the recalled vehicles to be repaired.    There are at least two challenges to completing repairs on recalled vehicles. One, of course, is consumer motivation. In this country, consumers make the choice whether or not to get their vehicles repaired. We want them all to get their vehicles repaired. We urge them to get their vehicles repaired. You all have done that from the dais over the course of the last couple of years. But, at the end of the day, consumers make that choice.    In an effort to sort of understand why people wouldn't get their vehicles repaired, my CEO, when he was testifying in front of the committee earlier this summer, noted that we were undertaking the first of its kind comprehensive study into consumer motivations. Global Automakers and the National Automobile Dealers ended up joining us. And we have been working together. And, as Mr. Bozzella stated, we are close to wrapping that up and look forward to briefing you all. We have actually been in touch about setting up a briefing for you all next month.    But putting consumer motivation aside, we know and you all saw over the last year or two that reaching all consumers in the first place is a significant challenge. It just is. One of the great things about the U.S. is we are a highly mobile economy. People move at the rate of about 17 percent a year. NHTSA, in analyzing vehicle completion--recall completion rates, has said that for those new vehicles in the sort of zero to 4 year-old time frame, about 83 percent of those get repaired. It is a very high percentage. But as soon as you start tracking further out, the completion rate numbers fall off dramatically.    Five to ten years, 44 percent completion rate. Over 10 years, 15 percent completion rate. At least part of the explanation for that is the challenge associated with actually reaching subsequent owners of vehicles. Mr. LaFeir's testimony is terrific. My companies, I think all of them probably use his service to contact consumers. But in reading his testimony, they admit that part of the problem is there is not uniformity among the states in the records they keep with regard to registration, how quickly those are updated. That is part of the reason why his company is so effective and why my companies use it is because they reach all these different data points beyond registrations so that we can notify consumers. The draft not only requires this information to be submitted into a national VIN database that would be accessible for recall purposes, but it effectively standardizes the information that would be collected and the timetables.    So it would, in fact, ensure that when we go to undertake a recall, we have a comprehensive set of timely contact information to work from and try to reach these owners of older vehicles who are still required to register those vehicles in the States. My testimony notes some other technical issues with the bill. But I think from the big picture standpoint, that is the issue that we are focused on. And it's worthy of further consideration.    With regard to the Motor Vehicle Safety Whistleblower Act, I would say just very briefly, that bill was introduced in the Senate last fall. The Alliance immediately reached out to staff on both sides of the aisle and Members. That bill had very strong bipartisan support. We expressed our concerns and worked through them. I never heard, frankly, in that time the issues that are being raised here today. That bill obviously passed by unanimous consent in the Senate. And we wouldn't object to you all taking it up and passing it over here. And with that, I will let myself open for questions.</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. While this is a hearing on legislative initiatives relating to safety, our committee has direct oversight responsibilities regarding both clean air and deceptive practices. And I would be remiss if I didn't bring up the following issue. As you know, last week, the EPA issued a notice of Clean Air Act violations to Volkswagen and its related companies stating that Volkswagen had manufactured and installed defeat devices in certain model year cars that, ``bypass, defeat, or otherwise render inoperable elements of the vehicle's emission control system.'' Volkswagen has not denied the EPA's assertion so far. In fact, the EPA has said Volkswagen has admitted it designed and installed defeat devices in these vehicles.    In my opinion, to think that one of the world's biggest and most established automakers deliberately set out to perpetrate this kind of scam on consumers is mind boggling and an outrage that harms both consumers and producers. On the one hand, we have consumers who trusted that Volkswagen played by the rules and that purchased cars had the attributes the company said they had. Dare to learn the truth about clean diesel was one of Volkswagen's advertisements. The reality appears to be that its diesel isn't clean and the ads are not true.    Nearly half a million U.S. consumers and millions more around the world have been lured by the idea of a more efficient, less polluting fossil fuel vehicle that now looks to be neither. And those people who are now saddled with vehicles that if repaired, and I am not sure that is the right word, probably won't meet the fuel economy standards that these consumers thought they were paying for. And the cars, themselves, have probably lost a tremendous amount of their resale value.    On the other hand, you have Volkswagen casting doubt on the industry as a whole. The company hasn't just harmed itself, it has harmed the entire industry. Volkswagen's actions, if everybody is wondering whether Volkswagen is the only one with this problem. So to that end, EPA released a letter being sent to vehicle manufacturers notifying them that the agency is adding new evaluations designed to find potential defeat devices.    Mr. Bozzella and Mr. Karr, what do you say to the American consumer, and how do we ensure that they are compensated not just for the economic loss, but for the fraud that appears to have been perpetrated on them? Let's start with Mr. Bozzella and then Mr. Karr.</t>
   </si>
   <si>
@@ -236,9 +212,6 @@
   </si>
   <si>
     <t>400616</t>
-  </si>
-  <si>
-    <t>G. K. Butterfield</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Butterfield. Thank you very much, Mr. Chairman. And I apologize for being in and out of the room. But the developments this morning regarding the Speaker's impending resignation has just caused a lot of telephone traffic in my office both from the media and from constituents. And so I have been back and forth.    But, Mr. Chairman, one of the laudable goals of the VIN look-up registration legislation is to enable manufacturers to reach more owners of recalled vehicles so that more vehicles will get repaired. And so I would like to focus my questions today on the rental car safety bill that I introduced with the support of Ranking Member Schakowsky and Congresswoman Capps, H.R. 2198. Companion legislation passed the Senate with bipartisan support as part of the Senate's highway bill.    The legislation will help maximize the number of recalled cars that get fixed. That bill is the Raechel and Jacqueline Houck Safe Rental Car Act, which is supported by the rental car industry. Yes, it is. Consumer organizations, General Motors, Honda, and others. That is very impressive. It would ensure that rental car companies fix recalled vehicles in their fleets before, before renting or selling them. And so to you, Mr. Wallace, what is the Consumers Union's position on 2198 if you all have one?</t>
@@ -685,11 +658,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -709,13 +680,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -737,11 +706,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -761,13 +728,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -789,11 +754,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -815,11 +778,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -839,13 +800,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -867,11 +826,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -893,11 +850,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -917,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -945,11 +898,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -971,11 +922,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -995,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1023,11 +970,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1049,11 +994,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1073,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1101,11 +1042,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1127,11 +1066,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1151,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1179,11 +1114,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1203,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1231,11 +1162,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1255,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>32</v>
-      </c>
-      <c r="H24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1283,11 +1210,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1307,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1335,11 +1258,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1359,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1387,11 +1306,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1411,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1439,11 +1354,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1463,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1489,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1515,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1541,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1567,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1593,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1619,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1645,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1671,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1697,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1723,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1751,11 +1642,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1775,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1801,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1827,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1853,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1879,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1905,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1931,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>59</v>
-      </c>
-      <c r="G50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1957,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1983,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2009,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2035,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
-      </c>
-      <c r="G54" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2063,11 +1930,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2087,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2113,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2139,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2165,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2191,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2217,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2243,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2269,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2295,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>74</v>
-      </c>
-      <c r="H64" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2321,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2347,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2375,11 +2218,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2399,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2427,11 +2266,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2451,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2479,11 +2314,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2505,11 +2338,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98448.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98448.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Burgess. The subcommittee on Commerce, Manufacturing, and Trade will now come to order. The chair will recognize himself for 5 minutes for the purpose of an opening statement.    And I do want to welcome everyone to our hearing this morning on the draft companion legislation to the Motor Vehicle Safety Whistleblower Act, and the discussion draft of the Improving Recall Tracking Act.    In 2014, there were over 63 million vehicles recalled in the United States due to safety concerns. This represents the highest number of vehicle recalls in more than three decades.    Under current law, vehicle manufacturers are required to report defects and noncompliance to the National Highway Traffic Safety Administration. The chairman of the full committee, Mr. Upton, has seen to it with the good work he did on the TREAD Act, but there have been times when the reporting has been slow.    The Motor Vehicle Safety Whistleblower Act is intended to foster greater attention and greater responsiveness to vehicle safety defects. It does so by providing an incentive to automotive employees and to contractors who report potential safety violations to the United States Department of Transportation that otherwise would be concealed or unreported. The bill encourages employees to report safety problems within their companies first to allow the automaker the opportunity to address safety issues. This is an important point because it keeps the incentive to work within the system. The bill is meant to enhance current early reporting systems that have already been instituted by Congress. Furthermore, the bill is designed with the express purpose of exposing and stopping instances of wrongdoing and protecting the safe and well-being of the public.    In addition to the Motor Vehicle Safety Whistleblower Act, we have an opportunity to examine the discussion draft of the Improving Recall Tracking Act. This proposal would direct the Department of Transportation to establish a national database of vehicle identification numbers and driver registration information. It is intended to facilitate the consumer notification process in the event of a safety recall.    In light of recent recalls, it has become apparent that one of the main challenges of removing defective vehicles from the road is making certain that the right consumers are notified of the defect in a timely manner. This hearing will give us an opportunity to discuss how a national database housing current driver registration information and current vehicle identification numbers could help improve the consumer recall notification process beyond that which is in place today. We will also hear how the industry is currently responding to these challenges so we can factor in improvements of the system.    Vehicle safety is a serious issue. It continues to be a concern for this subcommittee and for the driving public. In past hearings on this subject, I have said that Americans deserve better, Americans deserve more. The legislative proposals we will consider today are a step in the right direction toward providing the driving public with confidence that the vehicles they are driving are safe and that the recall process works. I will, in anticipation, thank the witnesses for their testimonies. And I look forward to an engaging discussion on these measures.    With that, the chair yields back and recognizes the subcommittee ranking member, Ms. Schakowsky, for 5 minutes for an opening statement.</t>
   </si>
   <si>
     <t>400360</t>
   </si>
   <si>
+    <t>Schakowsky</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman. It is so nice to meet on a quiet day where there is no real news to be talking about except for this. But even in connection with this, I did want to mention that I think this committee can also be focusing on very big issues and big news. And I look forward, I hope, to focusing on Volkswagen and their fraudulent emissions testing, cheating, that was revealed earlier this month.    As you pointed out, that the law already does require auto manufacturers to report defects. And here we have a situation of deliberately building in a defect. And we need to talk about that. I have a piece of legislation, the Vehicle Safety Improvement Act, which I think would actually do the real deal in terms of making sure that we deal with auto safety.    I want to recognize and welcome a friend of mine, Will Wallace, and a friend of this committee, who is testifying today on behalf of Consumers Union. He is an outstanding former staffer of the subcommittee and I know will bring important insight to this issue.    With more than 95 million American vehicles subject to safety recall over the past 2 years, we obviously have to improve the oversight of the auto industry and the efficacy and timeliness of recalls. I believe, unfortunately, that these bills miss the mark. While I support efforts to enhance the communication between auto companies and drivers whose cars are subject to recall, I don't believe that the vehicle identification number, VIN Database, discussion draft would achieve this goal.    Manufacturers are already able to access the names and addresses of drivers whose vehicles are subject to a recall. The difference in the discussion draft is that those records would be free of charge to the auto companies. And, yet, the bill would impose significant costs on NHTSA and the States with no funding provided to implement the new database. The Illinois Secretary of State's Office has communicated to us that he has serious concerns about the lack of financial support.    The second bill is intended to encourage auto industry whistleblowers. And while I appreciate the inclusion of language allowing whistleblowers to receive compensation and anonymity for coming forward, I have concerns about the bill's stipulations. Mr. Chairman, you said that it is good that the whistleblower has to report their concerns directly to the company first internally. And while one could make an argument that this might speed things up, I also really worry that provisions would discourage whistleblowers from acting and put them at professional risk for doing so, which really has been the history of whistleblowers. They have not done well vis-a-vis the companies that they work for.    There is a broader and more impactful legislative alternative to improve auto safety, as I said. My Vehicle Safety Improvement Act, which is cosponsored by Ranking Member Pallone and nine other members of this committee, is the alternative. It increases the amount and accessibility of information auto manufacturers must share with NHTSA and the public, and the public, about vehicle safety issues, and provides new authority to expedite auto recalls if they pose an imminent hazard of serious injury or death.    So that is what I am hoping that we are going to be able to do rather than I believe these bills, which kind of nibble around the margins. I am not just disappointed, I am actually frustrated. And I again urge the subcommittee to take up the Vehicle Safety Improvement Act. And I look forward to a discussion about what Volkswagen has been doing. And I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Bozzella</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bozzella. Thank you, Mr. Chairman, Ranking Member Schakowsky, members of the subcommittee, thank you very much for the opportunity to testify today.    I am John Bozzella, CEO and President of the Association of Global Automakers. As the ranking member has mentioned, the very troubling facts that have come to light involving Volkswagen will likely have significant implications for the industry. And I look forward to working with the subcommittee and discussing these issues as we move on.    I have been asked for our perspective on two bills, the Motor Vehicle Safety Whistleblower Act and the Improving Recall Tracking Act. In 2012, Congress included strong whistleblower provisions in MAP-21. We agree that whistleblower protection is a valuable tool for ensuring that safety concerns will be promptly identified, investigated, and remedied. The bill before the subcommittee builds on this law. Whistleblower protections have been incorporated into the safety practices of our members because they recognize that the manufacturer and its employees are the first line of defense in identifying and remedying safety concerns. Our member companies have instituted internal controls that empower employees to communicate with their employer about any problem they observe that could impair product quality or safety. For example, manufacturers train their employees specifically on product defect and safety issues and have dedicated safety officers who are responsible for following up on concerns raised by employees.    In addition, manufacturers have established hotlines that empower employees to communicate potential problems. Such systems allow the company to take appropriate remedial steps, in many cases before the affected vehicles leave the factory. But no system is foolproof. We recognize that whistleblower statutes can play an important role in improving motor vehicle safety.    The implementing regulations should give companies every reason and incentive to be informed of the problems promptly so that they can investigate the issues and make any repairs that are needed. While it is important for whistleblowers to be able to report safety issues directly to NHTSA, the process should ensure that employees are not incentivized to shortcut or circumvent internal systems that would result in quicker problem resolution. Our shared goal is to address defects, find remedies, and take care of the customer as quickly as possible. This is why the manufacturer needs to be a critical part of the process from the beginning.    The second bill before the subcommittee would establish a national VIN database using registration data collected by State DMV offices. We agree DMVs could help improve recall completion rates. This bill would allow manufacturers access to the most up to date information from the DMVs, which they could use to more effectively communicate recall notices to vehicle owners. In addition, DMVs could be encouraged to notify everyone who registers a motor vehicle about the recall status of their vehicle.    This bill also directs NHTSA to enable batch searching and processing of VINs on its SaferCar.gov Web site. We are aware that the current NHTSA system has limitations. But it is our understanding that some vendors have developed tools that enable batch processing. We believe the subcommittee should ensure that the processes created by this bill are not unnecessarily duplicative.    Increasing recall completion rates is a priority for Global Automakers. That is why we are conducting research along with the Auto Alliance to help understand what drives consumers to respond to recall campaigns. We look forward to briefing the subcommittee on the research findings soon.    Thank you again for the opportunity to appear before you today. And I would be happy to answer any questions that you might have.</t>
   </si>
   <si>
@@ -76,24 +94,36 @@
     <t xml:space="preserve">    Mr. Burgess. Mr. LaFeir, you are recognized for 5 minutes to summarize your testimony please.</t>
   </si>
   <si>
+    <t>LaFeir</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaFeir. Chairman Burgess, Ranking Member Schakowsky, thank you for allowing me to testify, and members of the subcommittee.    I am Joe LaFeir, Senior Vice President, Information Systems and Solutions for IHS, where I lead the company's automative data solutions business, which includes recall processing. IHS's foundation in the automotive industry reaches back to the advent of the automobile. Since then, IHS has worked with nearly all manufacturers to facilitate the recall process.    IHS remains an industry leader in vehicle recall data processing and provides this service to most manufacturers today. The draft Improving Recall Tracking Act proposes to establish a national VIN database and driver information to aid in recall notification. In addition, the bill requires batch searching of the current SaferCar.gov.    To be clear, we do not oppose the batch searching provision. We are here today to express our opposition to the proposed new database. As with any good idea, the private sector has already developed a highly effective and robust solution. So the legislation simply directs the Federal Government to attempt to replicate what already exists. If enacted, the legislation will limit innovation and use taxpayer funds to create a Federally-run database that would be less efficient and likely less capable than current market solutions.    Today, the private sector's real time data processing is accomplished utilizing best in class system technologies. Using processes developed over decades, companies like IHS process billions of records each year from tens of thousands of sources and thousands of file formats. Companies like IHS also employ thousands of people, many of whom are devoted to data processing to support recall.    IHS acquires, standardizes, assembles data to create mailing lists to provide notice to affected consumers. We assist with the fulfillment of recall notices, measurement of campaigns through their completion. We provide real time reporting to our OEM customers. Further, following completion of recall notice mailings, we gather open recall information and provide that to the public through our subsidiary CARFAX and its vehicle history report service.    This bill would require registration information to be gathered from each state. Automotive data companies use registration as just one data point and many proprietary sources to determine the best possible address to contact the owner of a recalled vehicle. As proposed, this database would not provide the same level of data that we can provide today in the private sector. Using private sector data solutions, we can identify and provide addresses for the vast majority of car owners. While there are a few exceptions, recall notification return mail rates typically range in the single digits. And the private sector continues to innovate further to reduce these numbers. Given the private sector's success in providing notice, perhaps the focus should be placed on addressing why some notified consumers get their cars remedied and others do not.    In conclusion, the legislation, while well-intended, does not create a better solution than what exists today. In an era where Federal budgets are limited, this bill would direct NHTSA to attempt to duplicate a product and service that the market, using private capital, has created decades ago. The private sector continues to innovate, going well beyond the requirements of this legislation.    I appreciate the invitation to testify, and look forward to your comments.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair recognizes Mr. Lawrence for 5 minutes for a summary of your testimony please.</t>
   </si>
   <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lawrence. Good morning, Mr. Chairman, Ranking Member Schakowsky, Ranking Member Pallone, and members of this subcommittee. And thank you for inviting me to testify at today's hearing on the proposed Motor Vehicle Safety Whistleblower Act. My comments will be restricted to that bill only.    My name is Cleveland Lawrence, III. I am a Co-Executive Director of Taxpayers Against Fraud and its sister organization, TAFEF Education Fund, which are two non-profit public interest organizations dedicated to combating fraud against taxpayer dollars through the promotion and protection of False Claims Act laws and qui tam provisions, which allow whistleblowers with evidence of fraud against government entities, to file suit on behalf of the government in exchange for financial rewards of at least 15 and up to 30 percent of the government's recovery if their suits are successful.    My organizations also support the goals of the IRS, SEC, and CFTC whistleblower programs, which do not have qui tam provisions but still offer monetary rewards to whistleblowers in exchange for original information about significant tax, securities, and commodities fraud.    I first joined TAF in 2008 and became co-executive director in 2013. I am an attorney by training and spent the first 6 years of my career as an associate at the international law firm of Weil, Gotshal &amp; Manges, where, among other things, my practice included defending whistleblower claims brought under the False Claims Act. Having examined whistleblower claims from both sides over the past 15 years, I can say without reservation that the Federal False Claims Act is the model statute for any effective whistleblower law or program.    Since that law was overhauled in 1986, the False Claims Act has returned more than $40 billion to the U.S. Treasury. This result is in large part due to the significant role that whistleblowers have played in exposing fraud on the Federal fisc. For example, according to the U.S. Department of Justice, False Claims Act cases have recovered $5.69 billion for the Federal Government just last fiscal year alone, with nearly $3 billion of that total resulting from lawsuits filed by whistleblowers. The success of the False Claims Act over a near 30-year period should not and has not been ignored. More than half of the States have False Claims Act statutes now. And at the government's urging, most of these laws mimic the Federal statute.    Similarly, the IRS, SEC, and CFTC now have provisions that reward whistleblowers, all of which are modeled on the False Claims Act. While I applaud and fully endorse the effort to enact whistleblower legislation to make automobiles and road travel safer, I cannot support the proposed Motor Vehicle Safety Whistleblower Act in its current form, as it suffers from many of the deficiencies that have already been corrected under the False Claims Act, IRS, SEC, and CFTC arenas. I will discuss two of the primary weakness of the bill, either of which is enough to significantly derail the program.    First, the bill lacks guaranteed minimum rewards and gives the Secretary of Transportation unfettered discretion over the amount of an award up to a maximum to give to whistleblowers whose information resulted in monetary sanctions recovered by the government from an automobile manufacturer, parts supplier, or dealership, including the option to award no award at all. Decades of experience make clear that any whistleblower program will inevitably fail unless it guarantees minimum rewards for those who risk their careers to come forward.    Before the False Claims Act was overhauled in 1986, it did not guarantee minimum rewards either. And the program did not effectively remedy fraud, bringing in only about $54 million dollars in the year before it was amended. But since then, we have seen the outstanding success of the statute, bringing in billions of dollars each year in the recent years. Whistleblowers are simply unable to risk their livelihood without the assurance of some compensation for doing so and reporting fraud or misconduct by their companies to the government. The SEC and CFTC, similarly, have guaranteed minimum rewards to whistleblowers for their information, as has the IRS. The concept of incentivized integrity works. But a whistleblower program that does not ensure minimum rewards can offer little more than an illusory promise.    The second issue with the bill is the internal reporting requirement. I can think of no other effective law enforcement paradigm that requires that the target of the investigation is notified before the government can investigate. In my experience, whistleblowers often prefer to report internally. But since not all internal compliance programs are equal, they have to make the choice about whether or not reporting internally to the company will target them for retaliation. In addition, by requiring a whistleblower to report internally, the government effectively cuts off access to continued information about the misconduct within the company, giving the company an opportunity to coach further witnesses, destroy evidence, or otherwise thwart what could be an effective secret government internal investigation.    I urge the committee to correct these two issues, because without these corrections the program is doomed to failure. I am happy to answer your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Mr. Wallace, you are recognized for 5 minutes for your testimony. Thank you.</t>
   </si>
   <si>
+    <t>Wallace</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wallace. Good morning, Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee.    I am Will Wallace, a policy analyst for Consumers Union, the advocacy arm of Consumer Reports. We are an independent, non-profit organization that works with consumers and for consumers for a fair, just, and safe marketplace, and to empower consumers to protect themselves. Consumers Union and Consumer Reports have fought for decades to make cars safer and hold companies accountable for the products they sell. We have pushed for effective rules and laws and for safety features such as seatbelts, air bags, and electronic stability control.    Our auto test center works every day to evaluate safety technologies. And we communicate with millions of consumers to help them make informed choices and stay safe. We appreciate the opportunity to testify.    Today's hearing is timely, given the news lately about auto safety and corporate wrongdoing. The Federal settlement with General Motors over ignition switches linked to at least 174 deaths was very disappointing because it didn't nearly go far enough to hold auto companies accountable for hiding the truth. Right on its heels came the news that Volkswagen had cheated on emissions control testing for some 11 million diesel vehicles and covered it up. These news items are sending shock waves through the industry, our government, and the public. The resulting erosion of confidence can't be overstated. And lawmakers need to take action to address this corporate accountability crisis.    The discussion draft and bill before you today attempt to address pieces of the problem. One, the Improving Recall Tracking Act aims to tackle low recall completion rates, while the other, the Motor Vehicle Safety Whistleblower Act, seeks to root out concealed defects. While we are pleased that the subcommittee is pursuing these worthy goals, Consumers Union believes that the two proposals fall far short both in terms of meeting their objectives and in terms of improving the flawed system that is supposed to ensure safety defects are identified and repaired before people get hurt.    The GM fiasco, along with crises involving defects in Toyota, Takata, and Chrysler products among others, made clear that auto companies must do far more to ensure their vehicles are safe. And NHTSA must do far more to hold auto companies accountable. Yet, the drafts before the subcommittee today are strikingly limited in their ambition.    The Improving Recall Tracking Act could possibly help companies reach owners of older vehicles in case of a recall if it were fully funded. But the bill doesn't authorize that funding, despite requiring NHTSA and the States to carry out a substantial amount of new work. NHTSA, in particular, needs to be able to hire more staff to protect the public the way we all expect, not have them stretched more than they already are.    Similarly, the Whistleblower Act could incentivize auto industry employees to give NHTSA information about concealed defects. Just imagine how much suffering could have been prevented if a GM engineer had reported the flawed ignition switch to NHTSA in 2006 or 2007. However, we are concerned the bill may not be as effective as it could be, primarily because of the lack of an established minimum award that at least covers the loss of earnings a whistleblower could face by sacrificing his or her career.    More broadly, though, the discussion draft and bill today don't do nearly enough for consumer safety. Instead, we urge you to take up bolder legislation, such as H.R. 1181, the Vehicle Safety Improvement Act. That bill would address shortfalls in current law, such as NHTSA's inadequate civil penalties authority and the loophole that allows dealers to sell recalled used vehicles before they are repaired. In addition to these measures, Consumers Union also encourages the enactment of a criminal penalties provision to deter executives from hiding defects.    The bill would strengthen NHTSA by authorizing the additional funding it badly needs, giving it imminent hazard authority like CPSC and FDA have, and making sure it receives more detailed information from manufacturers through early warning reporting. The bill would empower consumers by giving them free access to more safety information and by making NHTSA's existing databases, which can be clumsy, confusing, and hard for an ordinary consumer to use, more timely and more readily searchable. The Vehicle Safety Improvement Act would create an auto safety system that is proactive, identifying defects before they reach epidemic proportions. And we urge members to advance it. We also urge members to create a strong safety title for a possible highway bill. In addition to requiring that rental car companies fix recalled vehicles before they offer them to consumers, as the Senate transportation bill does, such a safety title should include the needed reforms just outlined. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Mr. Karr, you are recognized for 5 minutes for your testimony please.</t>
   </si>
   <si>
+    <t>Karr</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Karr. Thank you, Mr. Chairman, Ranking Member Schakowsky, Ranking Member Pallone. I appreciate the opportunity to testify on behalf of the Alliance of Automobile Manufacturers today.    I know that our time is limited. And my complete statement is submitted for the record. So I will limit my remarks here and try to focus on the big picture. You have asked me to testify about these two--the discussion draft and a bill today. Let's talk first about the Improving Recall Tracking Act. Auto manufacturers are committed to keeping their products safe. And when a safety defect is identified, we want to undertake a recall. And we want all of the recalled vehicles to be repaired.    There are at least two challenges to completing repairs on recalled vehicles. One, of course, is consumer motivation. In this country, consumers make the choice whether or not to get their vehicles repaired. We want them all to get their vehicles repaired. We urge them to get their vehicles repaired. You all have done that from the dais over the course of the last couple of years. But, at the end of the day, consumers make that choice.    In an effort to sort of understand why people wouldn't get their vehicles repaired, my CEO, when he was testifying in front of the committee earlier this summer, noted that we were undertaking the first of its kind comprehensive study into consumer motivations. Global Automakers and the National Automobile Dealers ended up joining us. And we have been working together. And, as Mr. Bozzella stated, we are close to wrapping that up and look forward to briefing you all. We have actually been in touch about setting up a briefing for you all next month.    But putting consumer motivation aside, we know and you all saw over the last year or two that reaching all consumers in the first place is a significant challenge. It just is. One of the great things about the U.S. is we are a highly mobile economy. People move at the rate of about 17 percent a year. NHTSA, in analyzing vehicle completion--recall completion rates, has said that for those new vehicles in the sort of zero to 4 year-old time frame, about 83 percent of those get repaired. It is a very high percentage. But as soon as you start tracking further out, the completion rate numbers fall off dramatically.    Five to ten years, 44 percent completion rate. Over 10 years, 15 percent completion rate. At least part of the explanation for that is the challenge associated with actually reaching subsequent owners of vehicles. Mr. LaFeir's testimony is terrific. My companies, I think all of them probably use his service to contact consumers. But in reading his testimony, they admit that part of the problem is there is not uniformity among the states in the records they keep with regard to registration, how quickly those are updated. That is part of the reason why his company is so effective and why my companies use it is because they reach all these different data points beyond registrations so that we can notify consumers. The draft not only requires this information to be submitted into a national VIN database that would be accessible for recall purposes, but it effectively standardizes the information that would be collected and the timetables.    So it would, in fact, ensure that when we go to undertake a recall, we have a comprehensive set of timely contact information to work from and try to reach these owners of older vehicles who are still required to register those vehicles in the States. My testimony notes some other technical issues with the bill. But I think from the big picture standpoint, that is the issue that we are focused on. And it's worthy of further consideration.    With regard to the Motor Vehicle Safety Whistleblower Act, I would say just very briefly, that bill was introduced in the Senate last fall. The Alliance immediately reached out to staff on both sides of the aisle and Members. That bill had very strong bipartisan support. We expressed our concerns and worked through them. I never heard, frankly, in that time the issues that are being raised here today. That bill obviously passed by unanimous consent in the Senate. And we wouldn't object to you all taking it up and passing it over here. And with that, I will let myself open for questions.</t>
   </si>
   <si>
@@ -175,6 +205,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. While this is a hearing on legislative initiatives relating to safety, our committee has direct oversight responsibilities regarding both clean air and deceptive practices. And I would be remiss if I didn't bring up the following issue. As you know, last week, the EPA issued a notice of Clean Air Act violations to Volkswagen and its related companies stating that Volkswagen had manufactured and installed defeat devices in certain model year cars that, ``bypass, defeat, or otherwise render inoperable elements of the vehicle's emission control system.'' Volkswagen has not denied the EPA's assertion so far. In fact, the EPA has said Volkswagen has admitted it designed and installed defeat devices in these vehicles.    In my opinion, to think that one of the world's biggest and most established automakers deliberately set out to perpetrate this kind of scam on consumers is mind boggling and an outrage that harms both consumers and producers. On the one hand, we have consumers who trusted that Volkswagen played by the rules and that purchased cars had the attributes the company said they had. Dare to learn the truth about clean diesel was one of Volkswagen's advertisements. The reality appears to be that its diesel isn't clean and the ads are not true.    Nearly half a million U.S. consumers and millions more around the world have been lured by the idea of a more efficient, less polluting fossil fuel vehicle that now looks to be neither. And those people who are now saddled with vehicles that if repaired, and I am not sure that is the right word, probably won't meet the fuel economy standards that these consumers thought they were paying for. And the cars, themselves, have probably lost a tremendous amount of their resale value.    On the other hand, you have Volkswagen casting doubt on the industry as a whole. The company hasn't just harmed itself, it has harmed the entire industry. Volkswagen's actions, if everybody is wondering whether Volkswagen is the only one with this problem. So to that end, EPA released a letter being sent to vehicle manufacturers notifying them that the agency is adding new evaluations designed to find potential defeat devices.    Mr. Bozzella and Mr. Karr, what do you say to the American consumer, and how do we ensure that they are compensated not just for the economic loss, but for the fraud that appears to have been perpetrated on them? Let's start with Mr. Bozzella and then Mr. Karr.</t>
   </si>
   <si>
@@ -212,6 +248,12 @@
   </si>
   <si>
     <t>400616</t>
+  </si>
+  <si>
+    <t>Butterfield</t>
+  </si>
+  <si>
+    <t>George</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Butterfield. Thank you very much, Mr. Chairman. And I apologize for being in and out of the room. But the developments this morning regarding the Speaker's impending resignation has just caused a lot of telephone traffic in my office both from the media and from constituents. And so I have been back and forth.    But, Mr. Chairman, one of the laudable goals of the VIN look-up registration legislation is to enable manufacturers to reach more owners of recalled vehicles so that more vehicles will get repaired. And so I would like to focus my questions today on the rental car safety bill that I introduced with the support of Ranking Member Schakowsky and Congresswoman Capps, H.R. 2198. Companion legislation passed the Senate with bipartisan support as part of the Senate's highway bill.    The legislation will help maximize the number of recalled cars that get fixed. That bill is the Raechel and Jacqueline Houck Safe Rental Car Act, which is supported by the rental car industry. Yes, it is. Consumer organizations, General Motors, Honda, and others. That is very impressive. It would ensure that rental car companies fix recalled vehicles in their fleets before, before renting or selling them. And so to you, Mr. Wallace, what is the Consumers Union's position on 2198 if you all have one?</t>
@@ -608,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,7 +658,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,1709 +680,2015 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
       <c r="H44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
       <c r="H46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
       <c r="H48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G50" t="s">
+        <v>63</v>
+      </c>
       <c r="H50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G52" t="s">
+        <v>63</v>
+      </c>
       <c r="H52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G54" t="s">
+        <v>63</v>
+      </c>
       <c r="H54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
       <c r="H56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
       <c r="H58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
       <c r="H60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G62" t="s">
+        <v>78</v>
+      </c>
       <c r="H62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G64" t="s">
+        <v>78</v>
+      </c>
       <c r="H64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
       <c r="H66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
       <c r="H68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
       <c r="H70" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98448.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98448.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Burgess</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Schakowsky</t>
   </si>
   <si>
@@ -205,6 +214,9 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Pallone</t>
   </si>
   <si>
@@ -248,6 +260,9 @@
   </si>
   <si>
     <t>400616</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Butterfield</t>
@@ -650,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,7 +673,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,2012 +698,2176 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G54" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I60" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>35</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>95</v>
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
